--- a/medicine/Enfance/Bénédicte_Guettier/Bénédicte_Guettier.xlsx
+++ b/medicine/Enfance/Bénédicte_Guettier/Bénédicte_Guettier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dicte_Guettier</t>
+          <t>Bénédicte_Guettier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bénédicte Guettier, née le 24 mai 1962[1] à Paris, est une écrivaine et illustratrice française, auteur de livres pour enfants.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bénédicte Guettier, née le 24 mai 1962 à Paris, est une écrivaine et illustratrice française, auteur de livres pour enfants.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dicte_Guettier</t>
+          <t>Bénédicte_Guettier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Aux éditions L'École des loisirs
-Certains ouvrages font partie de la griffe éditoriale « Loulou &amp; Cie » :
+          <t>Aux éditions L'École des loisirs</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains ouvrages font partie de la griffe éditoriale « Loulou &amp; Cie » :
 Amandine et Petit-lion, 1991.
 Trognon et Pépin, 1992.
 Lola, 1993.
@@ -577,7 +594,43 @@
 Mon papa préféré, 2011.
 Les Petits poissons, 2011.
 Les Petites souris, 2012.
-Aux éditions Casterman
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bénédicte_Guettier</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9n%C3%A9dicte_Guettier</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aux éditions Casterman</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Un délicieux gâteau en 10 leçons, 1993.
 Une galipette parfaite en 10 leçons, 1993.
 Un joli portrait en 10 leçons, 1993.
@@ -628,7 +681,43 @@
 Le Nid de Cui, Tchip et Piou, 2011.
 L'Œuf de Mimosa, 2011.
 Pour être un grand méchant loup, 2011.
-Aux éditions Gallimard jeunesse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bénédicte_Guettier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9n%C3%A9dicte_Guettier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aux éditions Gallimard jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 L'Âne Trotro, 2000.
 L'Âne Trotro et la pluie, 2000.
 L'Âne Trotro et la sardine, 2000.
@@ -730,8 +819,43 @@
 L'Âne Trotro à un secret, 2011.
 Les Promenades de Trotro, 2011.
 Le Sourire de Trotro, 2011.
-Aux éditions P.O.L
-Dans la collection « PetitPOL » :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bénédicte_Guettier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9n%C3%A9dicte_Guettier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aux éditions P.O.L</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la collection « PetitPOL » :
 Le Chat savant, 2003.
 Le Cochon dégoûtant, 2003.
 L'Éléphant, 2003.
@@ -764,13 +888,82 @@
 Le Pingouin indiscret, 2005.
 Le Singe voleur, 2005.
 Mes aventures, 2006.
-Aux éditions Éveil et Découvertes (livres-CD)
-Ferme ta boîte à camembert..., 2004.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bénédicte_Guettier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9n%C3%A9dicte_Guettier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aux éditions Éveil et Découvertes (livres-CD)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ferme ta boîte à camembert..., 2004.
 Ainsi font font font... les petits poissons, 2011
 Promenons-nous dans les bois, 2011
-Dansons la capucine, 2015
-Chez d'autres éditeurs
-Le Petit pouët, éditions Thierry Magnier, 1999.
+Dansons la capucine, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bénédicte_Guettier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9n%C3%A9dicte_Guettier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chez d'autres éditeurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Petit pouët, éditions Thierry Magnier, 1999.
 Bzzz la mouche, éditions Thierry Magnier, 2004.
 À la recherche de l'oiseau perdu, éditions Sarbacane, 2008.</t>
         </is>
